--- a/jpcore-r4/feature/swg5-薬剤コードの割当/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T09:32:46+00:00</t>
+    <t>2022-08-26T13:34:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -113,7 +113,7 @@
     <t>Content</t>
   </si>
   <si>
-    <t>example</t>
+    <t>fragment</t>
   </si>
   <si>
     <t>Supplements</t>

--- a/jpcore-r4/feature/swg5-薬剤コードの割当/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T13:34:34+00:00</t>
+    <t>2022-08-29T03:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-薬剤コードの割当/CodeSystem-jp-medication-code-hot9-cs.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/CodeSystem-jp-medication-code-hot9-cs.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:12:38+00:00</t>
+    <t>2022-08-29T07:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,6 +121,39 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>182110901</t>
+  </si>
+  <si>
+    <t>コミナティ筋注</t>
+  </si>
+  <si>
+    <t>103835401</t>
+  </si>
+  <si>
+    <t>ムコダイン錠２５０ｍｇ</t>
+  </si>
+  <si>
+    <t>110626901</t>
+  </si>
+  <si>
+    <t>パンスポリンＴ錠１００ １００ｍｇ</t>
   </si>
 </sst>
 </file>
@@ -428,4 +462,67 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>